--- a/药品基本信息.xlsx
+++ b/药品基本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19128" windowHeight="9612"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="药品基本信息" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="372">
   <si>
     <t>CAS</t>
   </si>
@@ -116,9 +116,6 @@
     <t>P450 CYP3A4</t>
   </si>
   <si>
-    <t>利福全</t>
-  </si>
-  <si>
     <t>江苏恩华药业股份有限公司</t>
   </si>
   <si>
@@ -149,6 +146,30 @@
     <t>湖南洞庭药业股份有限公司</t>
   </si>
   <si>
+    <t xml:space="preserve"> 28981-97-7</t>
+  </si>
+  <si>
+    <t>1-甲基-6-苯基-8-氯-4H-(1，2，4三唑[4，3-α][1，4])-苯并二氮杂</t>
+  </si>
+  <si>
+    <t>C17H13CIN4</t>
+  </si>
+  <si>
+    <t>Alprazolam Tablets</t>
+  </si>
+  <si>
+    <t>阿普唑仑片</t>
+  </si>
+  <si>
+    <t>焦虑、紧张，激动，也可用于催眠或焦虑的辅助用药，也可作为抗惊恐药，并能缓解急性酒精戒断症状</t>
+  </si>
+  <si>
+    <t>京益</t>
+  </si>
+  <si>
+    <t>北京益民药业有相似</t>
+  </si>
+  <si>
     <t>43200-81-3</t>
   </si>
   <si>
@@ -230,6 +251,30 @@
     <t>Sanofi Winthrop Industrie</t>
   </si>
   <si>
+    <t>151319-34-5</t>
+  </si>
+  <si>
+    <t>3-[3-氰基吡唑(1,5-a)并嘧啶-7]-N-乙基乙酰苯胺</t>
+  </si>
+  <si>
+    <t>C17H15N5O</t>
+  </si>
+  <si>
+    <t>Zaleplon Dispersible Tablets</t>
+  </si>
+  <si>
+    <t>扎来普隆分散片</t>
+  </si>
+  <si>
+    <t>入睡困难的失眠症的短期治疗</t>
+  </si>
+  <si>
+    <t>安云</t>
+  </si>
+  <si>
+    <t>三门峡赛诺维制药有限公司</t>
+  </si>
+  <si>
     <t>136434-34-9</t>
   </si>
   <si>
@@ -257,10 +302,19 @@
     <t>集团欧意药业有限公司</t>
   </si>
   <si>
+    <t>广东东阳光药业有限公司</t>
+  </si>
+  <si>
     <t>83015-26-3</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202122"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -399,7 +453,7 @@
     <t>C17H21NO·HCl</t>
   </si>
   <si>
-    <t>(R)-N-Methyl-3-phenyl-3-(o-tolyloxy)propan-1-amine</t>
+    <t>Atomoxetine Hydrochloride Capsules</t>
   </si>
   <si>
     <t>盐酸托莫西汀胶囊</t>
@@ -426,7 +480,7 @@
     <t>C17H18F3NO</t>
   </si>
   <si>
-    <t>(±)-N-methyl-γ-[4-(trifluoromethyl)phenoxy]benzenepropanamine</t>
+    <t>Fluoxetine Hydrochloride Capsules</t>
   </si>
   <si>
     <t>盐酸氟西汀胶囊</t>
@@ -441,6 +495,36 @@
     <t>上海新黄河制药有限公司</t>
   </si>
   <si>
+    <t>128196-01-0</t>
+  </si>
+  <si>
+    <t>( + )-(S)-1-(3-二甲氨丙基)-1-(4-氟代苯基)-1,3-二氢-5-异苯并呋喃腈草酸盐</t>
+  </si>
+  <si>
+    <t>C20H21FN2O·C2H2O4</t>
+  </si>
+  <si>
+    <t>Escitalopram Oxalate Tablets</t>
+  </si>
+  <si>
+    <t>草酸艾司西酞普兰片</t>
+  </si>
+  <si>
+    <t>抑郁症；广场恐怖症的惊恐障碍</t>
+  </si>
+  <si>
+    <t>P450 CYP3A4 CYP2C19</t>
+  </si>
+  <si>
+    <t>百适可</t>
+  </si>
+  <si>
+    <t>山东京卫制药有限公司</t>
+  </si>
+  <si>
+    <t>启程</t>
+  </si>
+  <si>
     <t>132539-06-1</t>
   </si>
   <si>
@@ -450,7 +534,7 @@
     <t>C17H20N4S</t>
   </si>
   <si>
-    <t>2-Methyl-4-(4-methyl-1-piperazinyl)-10H-thieno[2,3-b][1,5]benzodiazepine</t>
+    <t>Olanzapine Tablets</t>
   </si>
   <si>
     <t>奥氮平片</t>
@@ -510,9 +594,6 @@
     <t>启维</t>
   </si>
   <si>
-    <t>湖南洞庭药业有限公司</t>
-  </si>
-  <si>
     <t>31677-93-7</t>
   </si>
   <si>
@@ -639,6 +720,57 @@
     <t>上海玉瑞生物科技（安阳）药业有限公司</t>
   </si>
   <si>
+    <t>14611-51-9</t>
+  </si>
+  <si>
+    <t>(R)-N-a-二甲基-N-(2-丙炔基)苯乙胺盐酸盐</t>
+  </si>
+  <si>
+    <t>C13H17N·HCI</t>
+  </si>
+  <si>
+    <t>Selegiline Hydrochloride Tablets</t>
+  </si>
+  <si>
+    <t>盐酸司来吉兰片</t>
+  </si>
+  <si>
+    <t>原发性帕金森病</t>
+  </si>
+  <si>
+    <t>P450 CYP2B6 CYP2C19</t>
+  </si>
+  <si>
+    <t>金思平</t>
+  </si>
+  <si>
+    <t>山东绿叶制药有限公司</t>
+  </si>
+  <si>
+    <t>148553-50-8</t>
+  </si>
+  <si>
+    <t>(S‘)-3-（氨甲基）-5-甲基己酸</t>
+  </si>
+  <si>
+    <t>C8H17NO2</t>
+  </si>
+  <si>
+    <t>Pregabalin Capsules</t>
+  </si>
+  <si>
+    <t>普瑞巴林胶囊</t>
+  </si>
+  <si>
+    <t>带状疱疹后神经痛；纤维肌痛</t>
+  </si>
+  <si>
+    <t>喜思平</t>
+  </si>
+  <si>
+    <t>齐鲁制药（海南）有限公司</t>
+  </si>
+  <si>
     <t>979-32-8</t>
   </si>
   <si>
@@ -666,6 +798,21 @@
     <t>DELPHARM Lille S.A.S</t>
   </si>
   <si>
+    <t>Ethinylestradiol and Cyproterone Acetate Tablets</t>
+  </si>
+  <si>
+    <t>炔雌醇环丙孕酮片</t>
+  </si>
+  <si>
+    <t>女性口服避孕；妇女雄激素依赖性疾病</t>
+  </si>
+  <si>
+    <t>美洁多</t>
+  </si>
+  <si>
+    <t>上海信谊天平药业有限公司</t>
+  </si>
+  <si>
     <t>98319-26-7</t>
   </si>
   <si>
@@ -693,6 +840,12 @@
     <t>杭州康恩贝制药有限公司</t>
   </si>
   <si>
+    <t>蓝乐</t>
+  </si>
+  <si>
+    <t>天方药业有限公司</t>
+  </si>
+  <si>
     <t>164656-23-9</t>
   </si>
   <si>
@@ -762,6 +915,27 @@
     <t>充血性水肿，肝硬化腹水；高血压；原发性醛固酮增多症；低钾血症</t>
   </si>
   <si>
+    <t>7491-74-9</t>
+  </si>
+  <si>
+    <t>2-氧代-1-吡咯烷基乙酰胺</t>
+  </si>
+  <si>
+    <t>C6H10N2O2</t>
+  </si>
+  <si>
+    <t>Piracetam tablets</t>
+  </si>
+  <si>
+    <t>吡拉西坦片</t>
+  </si>
+  <si>
+    <t>急、慢性脑血管病、脑外伤、各种中毒性脑病等多种原因所致的记忆减退及轻、中度脑功能障碍。也可用于儿童智能发育迟缓</t>
+  </si>
+  <si>
+    <t>安阳市华安药业有限责任公司</t>
+  </si>
+  <si>
     <t>171599-83-0</t>
   </si>
   <si>
@@ -885,6 +1059,24 @@
     <t>四川制药制剂有限公司</t>
   </si>
   <si>
+    <t>70458-96-7</t>
+  </si>
+  <si>
+    <t>1-乙基-6-氟-1,4-二氢-4-氧代-7-(1-哌嗪基)-3-喹啉羧酸</t>
+  </si>
+  <si>
+    <t>C16H18FN3O3</t>
+  </si>
+  <si>
+    <t>Norfloxacin Capsules</t>
+  </si>
+  <si>
+    <t>诺氟沙星胶囊</t>
+  </si>
+  <si>
+    <t>敏感菌所致的尿路感染、淋病 、前列腺炎、肠道感染和伤寒及其他沙门菌感染</t>
+  </si>
+  <si>
     <t>148-72-1</t>
   </si>
   <si>
@@ -933,6 +1125,18 @@
     <t>海南海神同洲制药有限公司</t>
   </si>
   <si>
+    <t>Loratadine Capsules</t>
+  </si>
+  <si>
+    <t>氯雷他定胶囊</t>
+  </si>
+  <si>
+    <t>精威</t>
+  </si>
+  <si>
+    <t>广西厚德大健康产业股份有限公司</t>
+  </si>
+  <si>
     <t>83881-51-0</t>
   </si>
   <si>
@@ -960,6 +1164,30 @@
     <t>新华制药（高密）有限公司</t>
   </si>
   <si>
+    <t>132-22-9</t>
+  </si>
+  <si>
+    <t>3-（4-氯苯基）-N，N-二甲基-3-吡啶-2-基-丙烷-1-氨基</t>
+  </si>
+  <si>
+    <t>C20H23ClN2O4</t>
+  </si>
+  <si>
+    <t>Chlorphenamine Maleate Tablets</t>
+  </si>
+  <si>
+    <t>马来酸氯苯那敏片</t>
+  </si>
+  <si>
+    <t>皮肤过敏症：荨麻疹、湿疹、皮炎、药疹、皮肤瘙痒症、神经性皮炎、虫咬症、日光性皮炎；过敏性鼻炎、血管舒缩性鼻炎、药物及食物过敏</t>
+  </si>
+  <si>
+    <t>云鹏医药集团有限公司</t>
+  </si>
+  <si>
+    <t>300+</t>
+  </si>
+  <si>
     <t>50-81-7</t>
   </si>
   <si>
@@ -984,9 +1212,6 @@
     <t>东北制药集团沈阳第一制药有限公司</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>Paracetamol,Caffein,Atificial Cow-Bezoar And Chlorphenamine Maleate Capsules</t>
   </si>
   <si>
@@ -1006,6 +1231,27 @@
   </si>
   <si>
     <t>葵花药业集团（佳木斯）有限公司</t>
+  </si>
+  <si>
+    <t>麻杏止咳片</t>
+  </si>
+  <si>
+    <t>镇咳，祛痰，平喘。用于急、慢性支气管炎及喘息</t>
+  </si>
+  <si>
+    <t>甘肃中天金丹药业有限公司</t>
+  </si>
+  <si>
+    <t>酚咖麻敏胶囊</t>
+  </si>
+  <si>
+    <t>缓解感冒或流行性感冒引起的发热、头痛、鼻塞、流涕、咳痰等症状，以及缓解关节痛、神经痛</t>
+  </si>
+  <si>
+    <t>双效</t>
+  </si>
+  <si>
+    <t>修正药业集团股份有限公司</t>
   </si>
   <si>
     <t>Aminopyrine and Caffeine Tablets</t>
@@ -1049,7 +1295,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -1076,6 +1322,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202122"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1248,12 +1512,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1269,13 +1545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF02A5E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,31 +1887,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1638,43 +1908,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1683,74 +1956,83 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,6 +2048,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1775,62 +2063,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1850,8 +2168,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2172,1599 +2502,2157 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7962962962963" style="6" customWidth="1"/>
-    <col min="2" max="2" width="129.037037037037" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.962962962963" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.92592592592593" style="6" customWidth="1"/>
-    <col min="5" max="5" width="71.5277777777778" customWidth="1"/>
+    <col min="1" max="1" width="13.7962962962963" style="8" customWidth="1"/>
+    <col min="2" max="2" width="129.037037037037" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.962962962963" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.92592592592593" style="8" customWidth="1"/>
+    <col min="5" max="5" width="86.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="22.9814814814815" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.8703703703704" customWidth="1"/>
+    <col min="7" max="7" width="140.111111111111" customWidth="1"/>
     <col min="8" max="8" width="66.212962962963" customWidth="1"/>
     <col min="9" max="9" width="9.4537037037037" customWidth="1"/>
     <col min="10" max="10" width="44.212962962963" customWidth="1"/>
-    <col min="11" max="11" width="10.6666666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.0555555555556" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.7777777777778" style="6" customWidth="1"/>
+    <col min="11" max="11" width="10.6666666666667" style="8" customWidth="1"/>
+    <col min="12" max="12" width="16.0555555555556" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.7777777777778" style="8" customWidth="1"/>
     <col min="14" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>232.24</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <v>30</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>0</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>315.715</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="13">
+        <v>2</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="11">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12">
+        <v>321.16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10</v>
+      </c>
+      <c r="M4" s="12">
+        <v>20250912</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="12">
+        <v>321.16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>28</v>
+      </c>
+      <c r="M5" s="12">
+        <v>202512</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:13">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12">
+        <v>308.77</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="12">
+        <v>20</v>
+      </c>
+      <c r="M6" s="12">
+        <v>20271002</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:13">
+      <c r="A7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12">
+        <v>388.81</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3</v>
+      </c>
+      <c r="L7" s="12">
+        <v>14</v>
+      </c>
+      <c r="M7" s="12">
+        <v>20250828</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:13">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12">
+        <v>388.81</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>24</v>
+      </c>
+      <c r="M8" s="12">
+        <v>20260716</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="12">
+        <v>765</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="12">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12">
         <v>0</v>
       </c>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:13">
-      <c r="A4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="M9" s="12">
+        <v>202608</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:13">
+      <c r="A10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12">
+        <v>765</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="12">
+        <v>10</v>
+      </c>
+      <c r="L10" s="12">
+        <v>8</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:13">
+      <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="12">
+        <v>305.34</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="12">
+        <v>5</v>
+      </c>
+      <c r="L11" s="12">
+        <v>7</v>
+      </c>
+      <c r="M11" s="12">
+        <v>202508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="15">
+        <v>333.88</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="15">
+        <v>20</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>20260608</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:13">
+      <c r="A13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="15">
+        <v>333.88</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="15">
+        <v>20</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>202606</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="15.6" spans="1:13">
+      <c r="A14" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="15">
+        <v>291.82</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="15">
+        <v>40</v>
+      </c>
+      <c r="L14" s="15">
+        <v>7</v>
+      </c>
+      <c r="M14" s="15">
+        <v>202505</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:13">
+      <c r="A15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15">
+        <v>309.33</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="15">
+        <v>20</v>
+      </c>
+      <c r="L15" s="15">
+        <v>87</v>
+      </c>
+      <c r="M15" s="15">
+        <v>202702</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:13">
+      <c r="A16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="15">
+        <v>414.43</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="15">
+        <v>5</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>202608</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:13">
+      <c r="A17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="15">
+        <v>414.43</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="15">
+        <v>10</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="M17" s="15">
+        <v>202505</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:13">
+      <c r="A18" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="15">
+        <v>312.43</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="15">
+        <v>10</v>
+      </c>
+      <c r="L18" s="15">
+        <v>70</v>
+      </c>
+      <c r="M18" s="15">
+        <v>202601</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:13">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="15">
+        <v>312.43</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="15">
+        <v>5</v>
+      </c>
+      <c r="L19" s="15">
+        <v>36</v>
+      </c>
+      <c r="M19" s="15">
+        <v>202601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="15">
+        <v>448.39</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="15">
+        <v>5</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>202505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="15">
+        <v>441.54</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="15">
+        <v>100</v>
+      </c>
+      <c r="L21" s="15">
+        <v>10</v>
+      </c>
+      <c r="M21" s="15">
+        <v>202411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="15">
+        <v>276.2</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="15">
+        <v>75</v>
+      </c>
+      <c r="L22" s="15">
+        <v>7</v>
+      </c>
+      <c r="M22" s="15">
+        <v>202608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="15">
+        <v>320.89</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K23" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="L23" s="15">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10">
-        <v>321.16</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="M23" s="15">
+        <v>20241207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="15">
+        <v>310.72</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="15">
+        <v>200</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>202602</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="1:13">
+      <c r="A25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="22">
+        <v>370.33</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="22">
+        <v>15</v>
+      </c>
+      <c r="L25" s="22">
+        <v>24</v>
+      </c>
+      <c r="M25" s="22">
+        <v>202501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="15">
+        <v>187.71</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="15">
+        <v>100</v>
+      </c>
+      <c r="L26" s="15">
+        <v>76</v>
+      </c>
+      <c r="M26" s="15">
+        <v>202404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="15">
+        <v>223.75</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="15">
+        <v>5</v>
+      </c>
+      <c r="L27" s="15">
+        <v>8</v>
+      </c>
+      <c r="M27" s="15">
+        <v>202606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="15">
+        <v>159.23</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="15">
+        <v>75</v>
+      </c>
+      <c r="L28" s="15">
+        <v>32</v>
+      </c>
+      <c r="M28" s="15">
+        <v>20270514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="28">
+        <v>356.5</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="26">
+        <v>1</v>
+      </c>
+      <c r="L29" s="26">
+        <v>0</v>
+      </c>
+      <c r="M29" s="26">
+        <v>20270720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26">
+        <v>7</v>
+      </c>
+      <c r="M30" s="26">
+        <v>20261002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="26">
+        <v>372.55</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="26">
+        <v>5</v>
+      </c>
+      <c r="L31" s="26">
+        <v>0</v>
+      </c>
+      <c r="M31" s="26">
+        <v>202502</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:13">
+      <c r="A32" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="26">
+        <v>372.55</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="26">
+        <v>5</v>
+      </c>
+      <c r="L32" s="26">
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <v>202607</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:13">
+      <c r="A33" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="26">
+        <v>528.53</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10">
+      <c r="I33" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="26">
         <v>0.5</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L33" s="26">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>20250912</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:13">
-      <c r="A5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10">
-        <v>321.16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="M33" s="26">
+        <v>20270314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="26">
+        <v>416.94</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" s="29"/>
+      <c r="K34" s="26">
+        <v>50</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>202504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="26">
+        <v>416.94</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K35" s="26">
+        <v>50</v>
+      </c>
+      <c r="L35" s="26">
+        <v>46</v>
+      </c>
+      <c r="M35" s="26">
+        <v>202809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="26">
+        <v>416.57</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" s="26">
+        <v>20</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0</v>
+      </c>
+      <c r="M36" s="26">
+        <v>20260307</v>
+      </c>
+    </row>
+    <row r="37" s="6" customFormat="1" spans="1:13">
+      <c r="A37" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="35">
+        <v>142.16</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="49">
+        <v>400</v>
+      </c>
+      <c r="L37" s="49">
+        <v>0</v>
+      </c>
+      <c r="M37" s="49">
+        <v>202501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="41">
+        <v>666.7</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="I38" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="K38" s="39">
+        <v>50</v>
+      </c>
+      <c r="L38" s="39">
+        <v>0</v>
+      </c>
+      <c r="M38" s="39">
+        <v>202606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="39">
+        <v>389.41</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="39">
+        <v>20</v>
+      </c>
+      <c r="L39" s="39">
+        <v>7</v>
+      </c>
+      <c r="M39" s="39">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="39">
+        <v>341.88</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="39">
+        <v>30</v>
+      </c>
+      <c r="L40" s="39">
+        <v>0</v>
+      </c>
+      <c r="M40" s="39">
+        <v>20240306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="39">
+        <v>747.96</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="39">
+        <v>125</v>
+      </c>
+      <c r="L41" s="39">
+        <v>4</v>
+      </c>
+      <c r="M41" s="39">
+        <v>20250726</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="39">
+        <v>419.46</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" s="39">
+        <v>250</v>
+      </c>
+      <c r="L42" s="39">
+        <v>0</v>
+      </c>
+      <c r="M42" s="39">
+        <v>20250205</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:13">
+      <c r="A43" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D43" s="39">
+        <v>319.24</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="39">
+        <v>100</v>
+      </c>
+      <c r="L43" s="39">
         <v>39</v>
       </c>
-      <c r="K5" s="10">
-        <v>1</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="M43" s="39">
+        <v>202605</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:13">
+      <c r="A44" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="39">
+        <v>255.355</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" s="39">
+        <v>25</v>
+      </c>
+      <c r="L44" s="39">
+        <v>0</v>
+      </c>
+      <c r="M44" s="39">
+        <v>20250205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" s="39">
+        <v>310.82</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="10">
+      <c r="I45" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="39">
+        <v>10</v>
+      </c>
+      <c r="L45" s="39">
+        <v>4</v>
+      </c>
+      <c r="M45" s="39">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:13">
+      <c r="A46" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D46" s="39">
+        <v>310.82</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" s="39">
+        <v>10</v>
+      </c>
+      <c r="L46" s="39">
+        <v>50</v>
+      </c>
+      <c r="M46" s="39">
+        <v>202506</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" spans="1:13">
+      <c r="A47" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" s="39">
+        <v>461.81</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="I47" s="40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" s="39">
+        <v>10</v>
+      </c>
+      <c r="L47" s="39">
+        <v>0</v>
+      </c>
+      <c r="M47" s="39"/>
+    </row>
+    <row r="48" s="7" customFormat="1" spans="1:13">
+      <c r="A48" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="D48" s="39">
+        <v>390.86</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" s="39">
+        <v>4</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" s="39">
+        <v>20260710</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="39">
+        <v>176.13</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="39">
+        <v>100</v>
+      </c>
+      <c r="L49" s="39">
+        <v>0</v>
+      </c>
+      <c r="M49" s="39">
+        <v>202505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39">
+        <v>29</v>
+      </c>
+      <c r="M50" s="39"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39">
+        <v>11</v>
+      </c>
+      <c r="M51" s="39">
+        <v>202602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39">
+        <v>24</v>
+      </c>
+      <c r="M52" s="39">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39">
+        <v>3</v>
+      </c>
+      <c r="M53" s="39">
         <v>202512</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:13">
-      <c r="A6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10">
-        <v>388.81</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="10">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10">
-        <v>14</v>
-      </c>
-      <c r="M6" s="10">
-        <v>20250828</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:13">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10">
-        <v>388.81</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="L7" s="10">
-        <v>24</v>
-      </c>
-      <c r="M7" s="10">
-        <v>20260716</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="10">
-        <v>765</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="10">
-        <v>5</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>202608</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:13">
-      <c r="A9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="10">
-        <v>765</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="10">
-        <v>10</v>
-      </c>
-      <c r="L9" s="10">
-        <v>8</v>
-      </c>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="13">
-        <v>333.88</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" s="13">
-        <v>20</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>20260608</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="15.6" spans="1:13">
-      <c r="A11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="13">
-        <v>291.82</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="13">
-        <v>40</v>
-      </c>
-      <c r="L11" s="13">
-        <v>7</v>
-      </c>
-      <c r="M11" s="13">
-        <v>202505</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:13">
-      <c r="A12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="13">
-        <v>309.33</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="13">
-        <v>20</v>
-      </c>
-      <c r="L12" s="13">
-        <v>98</v>
-      </c>
-      <c r="M12" s="13">
-        <v>202702</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:13">
-      <c r="A13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13">
-        <v>312.43</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="13">
-        <v>5</v>
-      </c>
-      <c r="L13" s="13">
-        <v>112</v>
-      </c>
-      <c r="M13" s="13">
-        <v>202601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="13">
-        <v>448.39</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13">
-        <v>5</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13">
-        <v>202505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="13">
-        <v>441.54</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="13">
-        <v>100</v>
-      </c>
-      <c r="L15" s="13">
-        <v>28</v>
-      </c>
-      <c r="M15" s="13">
-        <v>202411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="13">
-        <v>276.2</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="15" t="s">
+    <row r="54" spans="1:13">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" s="39">
+        <v>202504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" s="39">
         <v>125</v>
       </c>
-      <c r="K16" s="13">
-        <v>75</v>
-      </c>
-      <c r="L16" s="13">
-        <v>19</v>
-      </c>
-      <c r="M16" s="13">
-        <v>202608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="13">
-        <v>320.89</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="13">
-        <v>12.5</v>
-      </c>
-      <c r="L17" s="13">
-        <v>100</v>
-      </c>
-      <c r="M17" s="13">
-        <v>20241207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="13">
-        <v>310.72</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="13">
-        <v>200</v>
-      </c>
-      <c r="L18" s="13">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13">
-        <v>202602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="13">
-        <v>370.33</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="13">
-        <v>15</v>
-      </c>
-      <c r="L19" s="13">
-        <v>74</v>
-      </c>
-      <c r="M19" s="13">
-        <v>202501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="13">
-        <v>187.71</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="13">
-        <v>100</v>
-      </c>
-      <c r="L20" s="13">
-        <v>76</v>
-      </c>
-      <c r="M20" s="13">
-        <v>202404</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="23">
-        <v>356.5</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>20270720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="21">
-        <v>372.55</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="21">
-        <v>5</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>202502</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:13">
-      <c r="A23" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="21">
-        <v>528.53</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <v>20270314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="21">
-        <v>416.94</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="21">
-        <v>50</v>
-      </c>
-      <c r="L24" s="21">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <v>202504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D25" s="21">
-        <v>416.94</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="21">
-        <v>100</v>
-      </c>
-      <c r="L25" s="21">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="21">
-        <v>416.57</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="21">
-        <v>20</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>20260307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="29">
-        <v>666.7</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="27">
-        <v>50</v>
-      </c>
-      <c r="L27" s="27">
-        <v>0</v>
-      </c>
-      <c r="M27" s="27">
-        <v>202606</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="27">
-        <v>389.41</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="K28" s="27">
-        <v>20</v>
-      </c>
-      <c r="L28" s="27">
-        <v>7</v>
-      </c>
-      <c r="M28" s="27">
-        <v>202509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D29" s="27">
-        <v>341.88</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" s="27">
-        <v>30</v>
-      </c>
-      <c r="L29" s="27">
-        <v>0</v>
-      </c>
-      <c r="M29" s="27">
-        <v>20240306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="27">
-        <v>747.96</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="27">
-        <v>125</v>
-      </c>
-      <c r="L30" s="27">
-        <v>4</v>
-      </c>
-      <c r="M30" s="27">
-        <v>20250726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="27">
-        <v>419.46</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="27">
-        <v>250</v>
-      </c>
-      <c r="L31" s="27">
-        <v>40</v>
-      </c>
-      <c r="M31" s="27">
-        <v>20250205</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:13">
-      <c r="A32" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="D32" s="27">
-        <v>255.355</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" s="27">
-        <v>25</v>
-      </c>
-      <c r="L32" s="27">
-        <v>20</v>
-      </c>
-      <c r="M32" s="27">
-        <v>20250205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D33" s="27">
-        <v>310.82</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="K33" s="27">
-        <v>10</v>
-      </c>
-      <c r="L33" s="27">
-        <v>7</v>
-      </c>
-      <c r="M33" s="27">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:13">
-      <c r="A34" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D34" s="27">
-        <v>461.81</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="K34" s="27">
-        <v>10</v>
-      </c>
-      <c r="L34" s="27">
-        <v>4</v>
-      </c>
-      <c r="M34" s="27"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="27">
-        <v>176.13</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="K35" s="27">
-        <v>100</v>
-      </c>
-      <c r="L35" s="27">
-        <v>0</v>
-      </c>
-      <c r="M35" s="27">
-        <v>202505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27">
-        <v>48</v>
-      </c>
-      <c r="M36" s="27"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="G37" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27">
-        <v>12</v>
-      </c>
-      <c r="M37" s="27">
-        <v>202602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="M38" s="27">
-        <v>202504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="K39" s="27">
-        <v>125</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="32"/>
+      <c r="L55" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" s="39"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="83015-26-3" tooltip="https://commonchemistry.cas.org/detail?cas_rn=83015-26-3"/>
+    <hyperlink ref="A14" r:id="rId1" display="83015-26-3" tooltip="https://commonchemistry.cas.org/detail?cas_rn=83015-26-3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/药品基本信息.xlsx
+++ b/药品基本信息.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="379">
   <si>
     <t>CAS</t>
   </si>
@@ -1075,6 +1075,27 @@
   </si>
   <si>
     <t>敏感菌所致的尿路感染、淋病 、前列腺炎、肠道感染和伤寒及其他沙门菌感染</t>
+  </si>
+  <si>
+    <t>52-49-3</t>
+  </si>
+  <si>
+    <t>(±)-α-环己基-α-苯基-1-哌啶丙醇盐酸盐</t>
+  </si>
+  <si>
+    <t>C20H31NO·HCI</t>
+  </si>
+  <si>
+    <t>Trihexyphenidyl Hydrochloride Tablets</t>
+  </si>
+  <si>
+    <t>盐酸苯海索片</t>
+  </si>
+  <si>
+    <t>帕金森病、帕金森综合征；药物引起的锥体外系疾患</t>
+  </si>
+  <si>
+    <t>上海中华药业有限公司</t>
   </si>
   <si>
     <t>148-72-1</t>
@@ -2032,7 +2053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,6 +2186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2177,10 +2201,22 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2502,12 +2538,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2670,7 +2706,7 @@
       <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="46" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -2914,7 +2950,7 @@
       <c r="H10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="46" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -3074,10 +3110,10 @@
       <c r="H14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="48" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="15">
@@ -3373,7 +3409,7 @@
       <c r="L21" s="15">
         <v>10</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="49">
         <v>202411</v>
       </c>
     </row>
@@ -3453,7 +3489,7 @@
       <c r="L23" s="15">
         <v>32</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="49">
         <v>20241207</v>
       </c>
     </row>
@@ -3535,7 +3571,7 @@
       <c r="L25" s="22">
         <v>24</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="50">
         <v>202501</v>
       </c>
     </row>
@@ -3576,7 +3612,7 @@
       <c r="L26" s="15">
         <v>76</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="49">
         <v>202404</v>
       </c>
     </row>
@@ -3685,7 +3721,7 @@
       <c r="H29" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="51" t="s">
         <v>208</v>
       </c>
       <c r="J29" s="29" t="s">
@@ -3878,7 +3914,7 @@
       <c r="H34" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="51" t="s">
         <v>241</v>
       </c>
       <c r="J34" s="29"/>
@@ -3917,7 +3953,7 @@
       <c r="H35" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="51" t="s">
         <v>242</v>
       </c>
       <c r="J35" s="29" t="s">
@@ -3999,13 +4035,13 @@
       <c r="J37" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="K37" s="49">
+      <c r="K37" s="52">
         <v>400</v>
       </c>
-      <c r="L37" s="49">
+      <c r="L37" s="52">
         <v>0</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="53">
         <v>202501</v>
       </c>
     </row>
@@ -4128,7 +4164,7 @@
       <c r="L40" s="39">
         <v>0</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="54">
         <v>20240306</v>
       </c>
     </row>
@@ -4250,7 +4286,7 @@
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:13">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="44" t="s">
         <v>303</v>
       </c>
       <c r="B44" s="40" t="s">
@@ -4260,7 +4296,7 @@
         <v>305</v>
       </c>
       <c r="D44" s="39">
-        <v>255.355</v>
+        <v>337.93</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>306</v>
@@ -4274,270 +4310,284 @@
       <c r="H44" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="42"/>
+      <c r="J44" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="K44" s="39">
+        <v>2</v>
+      </c>
+      <c r="L44" s="39">
+        <v>75</v>
+      </c>
+      <c r="M44" s="39">
+        <v>202506</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:13">
+      <c r="A45" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="K44" s="39">
+      <c r="B45" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="39">
+        <v>255.355</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" s="39">
         <v>25</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L45" s="39">
         <v>0</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M45" s="39">
         <v>20250205</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="D45" s="39">
-        <v>310.82</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="J45" s="42" t="s">
+    <row r="46" spans="1:13">
+      <c r="A46" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="K45" s="39">
-        <v>10</v>
-      </c>
-      <c r="L45" s="39">
-        <v>4</v>
-      </c>
-      <c r="M45" s="39">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:13">
-      <c r="A46" s="39" t="s">
-        <v>311</v>
-      </c>
       <c r="B46" s="40" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D46" s="39">
         <v>310.82</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H46" s="42" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="42" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K46" s="39">
         <v>10</v>
       </c>
       <c r="L46" s="39">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M46" s="39">
-        <v>202506</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:13">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:13">
       <c r="A47" s="39" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D47" s="39">
-        <v>461.81</v>
-      </c>
-      <c r="E47" s="40" t="s">
+        <v>310.82</v>
+      </c>
+      <c r="E47" s="42" t="s">
         <v>326</v>
       </c>
       <c r="F47" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G47" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="J47" s="42" t="s">
         <v>329</v>
-      </c>
-      <c r="I47" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="J47" s="40" t="s">
-        <v>331</v>
       </c>
       <c r="K47" s="39">
         <v>10</v>
       </c>
       <c r="L47" s="39">
-        <v>0</v>
-      </c>
-      <c r="M47" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="M47" s="39">
+        <v>202506</v>
+      </c>
     </row>
     <row r="48" s="7" customFormat="1" spans="1:13">
       <c r="A48" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="D48" s="39">
+        <v>461.81</v>
+      </c>
+      <c r="E48" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="F48" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="D48" s="39">
-        <v>390.86</v>
-      </c>
-      <c r="E48" s="40" t="s">
+      <c r="G48" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="H48" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="I48" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="I48" s="40"/>
       <c r="J48" s="40" t="s">
         <v>338</v>
       </c>
       <c r="K48" s="39">
+        <v>10</v>
+      </c>
+      <c r="L48" s="39">
+        <v>0</v>
+      </c>
+      <c r="M48" s="39"/>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:13">
+      <c r="A49" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="39">
+        <v>390.86</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" s="39">
         <v>4</v>
       </c>
-      <c r="L48" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="M48" s="39">
+      <c r="L49" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" s="39">
         <v>20260710</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="D49" s="39">
+    <row r="50" spans="1:13">
+      <c r="A50" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D50" s="39">
         <v>176.13</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>344</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42" t="s">
-        <v>347</v>
-      </c>
-      <c r="K49" s="39">
-        <v>100</v>
-      </c>
-      <c r="L49" s="39">
-        <v>0</v>
-      </c>
-      <c r="M49" s="39">
-        <v>202505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="39"/>
       <c r="E50" s="42" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G50" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="H50" s="42"/>
+        <v>352</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>353</v>
+      </c>
       <c r="I50" s="42"/>
       <c r="J50" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="K50" s="39"/>
+        <v>354</v>
+      </c>
+      <c r="K50" s="39">
+        <v>100</v>
+      </c>
       <c r="L50" s="39">
-        <v>29</v>
-      </c>
-      <c r="M50" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="39">
+        <v>202505</v>
+      </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="39"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="42"/>
+      <c r="E51" s="42" t="s">
+        <v>355</v>
+      </c>
       <c r="F51" s="43" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G51" s="42" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="39">
-        <v>11</v>
-      </c>
-      <c r="M51" s="39">
-        <v>202602</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M51" s="39"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="39"/>
@@ -4546,22 +4596,22 @@
       <c r="D52" s="39"/>
       <c r="E52" s="42"/>
       <c r="F52" s="43" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G52" s="42" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H52" s="42"/>
       <c r="I52" s="42"/>
       <c r="J52" s="42" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K52" s="39"/>
       <c r="L52" s="39">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M52" s="39">
-        <v>202509</v>
+        <v>202602</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4571,24 +4621,22 @@
       <c r="D53" s="39"/>
       <c r="E53" s="42"/>
       <c r="F53" s="43" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G53" s="42" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H53" s="42"/>
-      <c r="I53" s="42" t="s">
-        <v>360</v>
-      </c>
+      <c r="I53" s="42"/>
       <c r="J53" s="42" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K53" s="39"/>
       <c r="L53" s="39">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M53" s="39">
-        <v>202512</v>
+        <v>202509</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4596,26 +4644,26 @@
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="42" t="s">
-        <v>362</v>
-      </c>
+      <c r="E54" s="42"/>
       <c r="F54" s="43" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="42" t="s">
+        <v>367</v>
+      </c>
       <c r="J54" s="42" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K54" s="39"/>
-      <c r="L54" s="39" t="s">
-        <v>366</v>
+      <c r="L54" s="39">
+        <v>3</v>
       </c>
       <c r="M54" s="39">
-        <v>202504</v>
+        <v>202512</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4624,31 +4672,58 @@
       <c r="C55" s="40"/>
       <c r="D55" s="39"/>
       <c r="E55" s="42" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H55" s="42"/>
-      <c r="I55" s="42" t="s">
-        <v>370</v>
-      </c>
+      <c r="I55" s="42"/>
       <c r="J55" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="K55" s="39">
+        <v>372</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="M55" s="39">
+        <v>202504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J56" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" s="39">
         <v>125</v>
       </c>
-      <c r="L55" s="39" t="s">
-        <v>366</v>
-      </c>
-      <c r="M55" s="39"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="44"/>
+      <c r="L56" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="M56" s="39"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
